--- a/xlsx/北卡罗来纳州_intext.xlsx
+++ b/xlsx/北卡罗来纳州_intext.xlsx
@@ -15,1809 +15,1815 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="603">
   <si>
     <t>北卡罗来纳州</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BE%85%E4%BE%86%E7%B4%8D%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_北卡罗来纳州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E%E5%B7%9E%E6%97%97</t>
+  </si>
+  <si>
+    <t>北卡罗来纳州州旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%98%B5%E7%A7%B0%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州昵称列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%B2%B9%E8%84%9A%E8%B7%9F</t>
+  </si>
+  <si>
+    <t>柏油脚跟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>英语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州首府列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%87%8C_(%E5%8C%97%E5%8D%A1%E7%BE%85%E4%BE%86%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>罗里 (北卡罗来纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E6%B4%9B%E7%89%B9_(%E5%8C%97%E5%8D%A1%E7%BE%85%E4%BE%86%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>夏洛特 (北卡罗来纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%9D%A2%E7%A7%AF%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州面积列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州人口列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国州份人口密度列表</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_U.S._states_by_elevation</t>
+  </si>
+  <si>
+    <t>en-List of U.S. states by elevation</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD%E4%BE%9D%E5%8A%A0%E5%85%A5%E8%81%94%E9%82%A6%E9%A1%BA%E5%BA%8F%E6%8E%92%E5%88%97%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国州份依加入联邦顺序排列列表</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_Governors_of_North_Carolina</t>
+  </si>
+  <si>
+    <t>en-List of Governors of North Carolina</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Roy_Cooper</t>
+  </si>
+  <si>
+    <t>en-Roy Cooper</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
+  </si>
+  <si>
+    <t>民主党 (美国)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_lieutenant_governors_of_North_Carolina</t>
+  </si>
+  <si>
+    <t>en-List of lieutenant governors of North Carolina</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Dan_Forest</t>
+  </si>
+  <si>
+    <t>en-Dan Forest</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
+  </si>
+  <si>
+    <t>共和党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
+  </si>
+  <si>
+    <t>立法机构</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_United_States_Senators_from_North_Carolina</t>
+  </si>
+  <si>
+    <t>en-List of United States Senators from North Carolina</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%C2%B7%E6%B3%A2%E7%88%BE</t>
+  </si>
+  <si>
+    <t>理查·波尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E5%A7%86%C2%B7%E6%8F%90%E5%8A%9B%E6%96%AF</t>
+  </si>
+  <si>
+    <t>汤姆·提力斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国众议院</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/United_States_congressional_delegations_from_North_Carolina</t>
+  </si>
+  <si>
+    <t>en-United States congressional delegations from North Carolina</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%97%B6%E5%8C%BA%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州时区列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E4%B8%9C%E9%83%A8%E6%97%B6%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>北美东部时区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/UTC-5</t>
+  </si>
+  <si>
+    <t>UTC-5</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/UTC-4</t>
+  </si>
+  <si>
+    <t>UTC-4</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州缩写列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/ISO_3166-2:US</t>
+  </si>
+  <si>
+    <t>ISO 3166-2-US</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国南部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9D%B1%E5%B2%B8</t>
+  </si>
+  <si>
+    <t>美国东岸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%BF_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>县 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>北美十三殖民地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E8%81%AF%E7%9B%9F%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>美利坚联盟国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E7%89%B9%E5%85%84%E5%BC%9F</t>
+  </si>
+  <si>
+    <t>莱特兄弟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>乔治亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>南卡罗来纳州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
+  </si>
+  <si>
+    <t>新英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B9%BF%E6%B6%A6%E5%A4%A7%E9%99%86%E6%80%A7%E6%B0%94%E5%80%99</t>
+  </si>
+  <si>
+    <t>湿润大陆性气候</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B5%B7%E8%BB%8D</t>
+  </si>
+  <si>
+    <t>美国海军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E8%99%9F%E6%88%B0%E8%89%A6_(BB-55)</t>
+  </si>
+  <si>
+    <t>北卡罗莱纳号战舰 (BB-55)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>英国人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%90%86%E4%BA%8C%E4%B8%96_(%E8%8B%B1%E6%A0%BC%E5%85%B0)</t>
+  </si>
+  <si>
+    <t>查理二世 (英格兰)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95</t>
+  </si>
+  <si>
+    <t>美国宪法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A5%BF%E6%B4%8B</t>
+  </si>
+  <si>
+    <t>大西洋</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%88%87%E7%88%BE%E5%B3%B0</t>
+  </si>
+  <si>
+    <t>米切尔峰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E5%9F%83%E8%92%99%E7%89%B9_(%E7%BE%8E%E5%9C%8B)</t>
+  </si>
+  <si>
+    <t>皮埃蒙特 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E7%BD%95_(%E5%8C%97%E5%8D%A1%E7%BE%85%E4%BE%86%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>德罕 (北卡罗来纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E6%96%AF%E4%BC%AF%E5%8B%92_(%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>格林斯伯勒 (北卡罗来纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E5%88%A9_(%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>罗利 (北卡罗来纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E8%8E%8E_(%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>温莎 (北卡罗来纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E8%80%B6%E7%89%B9%E7%B6%AD%E7%88%BE_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>费耶特维尔 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%91%9E_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>卡瑞 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B3%A2%E5%9B%A0%E7%89%B9_(%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>海波因特 (北卡罗来纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%B0%94%E6%98%8E%E9%A1%BF_(%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>威尔明顿 (北卡罗来纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%93%B6%E8%A1%8C</t>
+  </si>
+  <si>
+    <t>美国银行</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E5%B6%BA%E5%B1%B1%E8%84%88</t>
+  </si>
+  <si>
+    <t>蓝岭山脉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%83%9F%E5%B1%B1</t>
+  </si>
+  <si>
+    <t>大烟山</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Croatan_National_Forest</t>
+  </si>
+  <si>
+    <t>en-Croatan National Forest</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Nantahala_National_Forest</t>
+  </si>
+  <si>
+    <t>en-Nantahala National Forest</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Pisgah_National_Forest</t>
+  </si>
+  <si>
+    <t>en-Pisgah National Forest</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Uwharrie_National_Forest</t>
+  </si>
+  <si>
+    <t>en-Uwharrie National Forest</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E7%BE%8E%E8%A3%94%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>拉美裔人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>印第安人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>英国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>德国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD</t>
+  </si>
+  <si>
+    <t>爱尔兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E5%AE%97%E6%95%99</t>
+  </si>
+  <si>
+    <t>基督宗教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%96%B0%E6%95%99</t>
+  </si>
+  <si>
+    <t>基督新教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B8%E7%A4%BC%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>浸礼会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E7%90%86%E5%85%AC%E6%9C%83</t>
+  </si>
+  <si>
+    <t>卫理公会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E8%80%81%E6%95%99%E6%9C%83</t>
+  </si>
+  <si>
+    <t>长老教会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%A4%A9%E4%B8%BB%E6%95%99</t>
+  </si>
+  <si>
+    <t>罗马天主教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E6%95%99</t>
+  </si>
+  <si>
+    <t>犹太教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%A4%A7%E5%AD%A6%E7%B3%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>北卡罗来纳大学系统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%A4%A7%E5%AD%A6%E6%95%99%E5%A0%82%E5%B1%B1%E5%88%86%E6%A0%A1</t>
+  </si>
+  <si>
+    <t>北卡罗来纳大学教堂山分校</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>北卡罗来纳州立大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E5%85%8B%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>杜克大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E6%A3%AE%E6%9E%97%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>威克森林大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E6%B4%9B%E7%89%B9%E9%81%93%E6%A0%BC%E6%8B%89%E6%96%AF%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
+  </si>
+  <si>
+    <t>夏洛特道格拉斯国际机场</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%BE%8E%E8%88%AA%E7%A9%BA</t>
+  </si>
+  <si>
+    <t>全美航空</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/40%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
+  </si>
+  <si>
+    <t>40号州际公路</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/85%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
+  </si>
+  <si>
+    <t>85号州际公路</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/95%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
+  </si>
+  <si>
+    <t>95号州际公路</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/74%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
+  </si>
+  <si>
+    <t>74号州际公路</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/77%E5%8F%B7%E5%B7%9E%E9%99%85%E5%85%AC%E8%B7%AF</t>
+  </si>
+  <si>
+    <t>77号州际公路</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/26%E5%8F%B7%E5%B7%9E%E9%99%85%E5%85%AC%E8%B7%AF</t>
+  </si>
+  <si>
+    <t>26号州际公路</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E9%BB%91%E8%B1%B9</t>
+  </si>
+  <si>
+    <t>卡罗莱纳黑豹</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%81%AF%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>小联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E7%99%BD%E8%A5%AA</t>
+  </si>
+  <si>
+    <t>芝加哥白袜</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E5%B8%95%E7%81%A3%E5%85%89%E8%8A%92</t>
+  </si>
+  <si>
+    <t>坦帕湾光芒</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94%E9%A6%AC%E6%9E%97%E9%AD%9A</t>
+  </si>
+  <si>
+    <t>佛罗里达马林鱼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E5%A4%AB%E8%98%AD%E5%8D%B0%E5%9C%B0%E5%AE%89%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>克里夫兰印地安人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E6%B4%9B%E7%A3%AF</t>
+  </si>
+  <si>
+    <t>科罗拉多洛矶</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%B9%E8%8C%B2%E5%A0%A1%E6%B5%B7%E7%9B%9C</t>
+  </si>
+  <si>
+    <t>匹兹堡海盗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/NBA</t>
+  </si>
+  <si>
+    <t>NBA</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E6%B4%9B%E7%89%B9%E9%BB%83%E8%9C%82</t>
+  </si>
+  <si>
+    <t>夏洛特黄蜂</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/NCAA</t>
+  </si>
+  <si>
+    <t>NCAA</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/East_Carolina_Pirates</t>
+  </si>
+  <si>
+    <t>en-East Carolina Pirates</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E5%85%8B%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Duke_Blue_Devils</t>
+  </si>
+  <si>
+    <t>en-Duke Blue Devils</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>北卡大学</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/North_Carolina_Tar_Heels</t>
+  </si>
+  <si>
+    <t>en-North Carolina Tar Heels</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%85%8B%E5%BC%97%E6%96%AF%E7%89%B9%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>维克弗斯特大学</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Wake_Forest_Demon_Deacons_men%27s_basketball</t>
+  </si>
+  <si>
+    <t>en-Wake Forest Demon Deacons men's basketball</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/NC_State_Wolfpack</t>
+  </si>
+  <si>
+    <t>en-NC State Wolfpack</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/University_of_North_Carolina_at_Charlotte</t>
+  </si>
+  <si>
+    <t>en-University of North Carolina at Charlotte</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Charlotte_49ers</t>
+  </si>
+  <si>
+    <t>en-Charlotte 49ers</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/WNBA</t>
+  </si>
+  <si>
+    <t>WNBA</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E6%B4%9B%E7%89%B9%E8%9E%AB%E9%87%9D</t>
+  </si>
+  <si>
+    <t>夏洛特螫针</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8A%B1%E5%9B%9B%E7%85%A7%E8%8A%B1</t>
+  </si>
+  <si>
+    <t>大花四照花</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E7%BA%A2%E9%9B%80</t>
+  </si>
+  <si>
+    <t>北美红雀</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
+  </si>
+  <si>
+    <t>美国国会图书馆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>Template talk-美国行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
+  </si>
+  <si>
+    <t>美国行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
+  </si>
+  <si>
+    <t>美国州份</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>亚拉巴马州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>阿拉斯加州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>亚利桑那州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>阿肯色州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>加利福尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>科罗拉多州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>康乃狄克州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%8B%89%E5%8D%8E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>特拉华州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>佛罗里达州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>夏威夷州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E8%BE%BE%E8%8D%B7%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>爱达荷州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>伊利诺伊州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%BA%B3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>印第安纳州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%A5%A5%E7%93%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>艾奥瓦州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>堪萨斯州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>肯塔基州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>路易斯安那州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E5%9B%A0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>缅因州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E5%85%B0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>马里兰州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>麻萨诸塞州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>密歇根州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>明尼苏达州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>密西西比州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>密苏里州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>蒙大拿州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>内布拉斯加州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>内华达州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%BD%95%E5%B8%83%E4%BB%80%E5%B0%94%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>新罕布什尔州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B3%BD%E8%A5%BF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>新泽西州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>新墨西哥州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>纽约州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>北达科他州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>俄亥俄州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>奥克拉荷马州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>俄勒冈州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>宾夕法尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>罗德岛州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>南达科他州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%BA%B3%E8%A5%BF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>田纳西州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>德克萨斯州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E4%BB%96%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>犹他州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E8%92%99%E7%89%B9%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>佛蒙特州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>弗吉尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>华盛顿州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>西维吉尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>威斯康辛州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%80%80%E4%BF%84%E6%98%8E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>怀俄明州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
+  </si>
+  <si>
+    <t>联邦地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>华盛顿哥伦比亚特区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
+  </si>
+  <si>
+    <t>岛屿地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>美属萨摩亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>关岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>北马里亚纳群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
+  </si>
+  <si>
+    <t>波多黎各</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>美属维尔京群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
+  </si>
+  <si>
+    <t>美国本土外小岛屿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>威克岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
+  </si>
+  <si>
+    <t>约翰斯顿环礁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>中途岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
+  </si>
+  <si>
+    <t>金曼礁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
+  </si>
+  <si>
+    <t>帕迈拉环礁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>贾维斯岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>贝克岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>豪兰岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>纳瓦萨岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%9C%8D%E5%8A%AA%E5%9F%83%E6%B2%83%E6%B5%85%E6%BB%A9</t>
+  </si>
+  <si>
+    <t>巴霍努埃沃浅滩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E5%B0%BC%E6%8B%89%E6%B5%85%E6%BB%A9</t>
+  </si>
+  <si>
+    <t>塞拉尼拉浅滩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BF%9D%E7%95%99%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>印第安保留地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E4%BB%80%E7%BB%B4%E5%B0%94</t>
+  </si>
+  <si>
+    <t>阿什维尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E7%A7%91%E5%BE%B7_(%E5%8C%97%E5%8D%A1%E7%BE%85%E4%BE%86%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>康科德 (北卡罗来纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BE%BE%E5%8B%92%E5%A7%86_(%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>达勒姆 (北卡罗来纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%96%AF%E6%89%98%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>加斯托尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E6%96%AF%E9%A0%93-%E6%92%92%E5%86%B7</t>
+  </si>
+  <si>
+    <t>温斯顿-撒冷</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%9B%BC%E6%96%AF%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>阿拉曼斯县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>亚历山大县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%88%A9%E6%A0%B9%E5%B0%BC%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>阿利根尼县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%A3%AE%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>安森县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E4%BB%80%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>阿什县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%BC%97%E9%87%8C%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>埃弗里县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E7%A6%8F%E7%89%B9%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>博福特县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E8%92%82%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>伯蒂县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%8B%89%E7%99%BB%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>布拉登县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E5%80%AB%E7%91%9E%E5%85%8B%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>不伦瑞克县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8F%AD%E5%BA%B7%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>班康县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%85%8B%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>伯克县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E8%B4%9D%E5%8B%92%E6%96%AF%E5%8E%BF_(%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>卡贝勒斯县 (北卡罗来纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%80%83%E5%BE%B7%E5%A8%81%E7%88%BE%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>考德威尔县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E7%99%BB%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>康登县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%89%B9%E5%88%A9%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>加特利县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%96%AF%E9%9F%8B%E7%88%BE%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>卡斯韦尔县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%89%98%E5%B7%B4%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>卡托巴县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%A1%94%E5%A7%86%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>查塔姆县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%87%E7%BE%85%E5%9F%BA%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>切罗基县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E8%90%AC%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>乔万县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E8%8E%B1%E5%8E%BF_(%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>克莱县 (北卡罗来纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E5%A4%AB%E8%98%AD%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>克里夫兰县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E5%B8%83%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>哥伦布县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%9B%B7%E6%96%87%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>克雷文县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E4%BC%AF%E8%98%AD%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>坎伯兰县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%AF%E9%87%8C%E5%A1%94%E5%85%8B%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>柯里塔克县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E7%88%BE%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>戴尔县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E7%BB%B4%E6%A3%AE%E5%8E%BF_(%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>戴维森县 (北卡罗来纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E7%B6%AD%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>戴维县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E6%99%AE%E6%9E%97%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>杜普林县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E9%BD%8A%E5%BA%B7%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>厄齐康县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E8%B3%BD%E6%96%AF%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>福赛斯县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E8%98%AD%E5%85%8B%E6%9E%97%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>富兰克林县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%96%AF%E9%A0%93%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>加斯顿县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E8%8C%A8%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>盖茨县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E8%98%AD%E5%A7%86%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>葛兰姆县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E8%98%AD%E7%B6%AD%E7%88%BE%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>格兰维尔县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>格林县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%88%BE%E7%A6%8F%E5%BE%B7%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>吉尔福德县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%88%A9%E6%B3%95%E5%85%8B%E6%96%AF%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>哈利法克斯县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%B0%BC%E7%89%B9%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>哈尼特县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E4%BC%8D%E5%BE%B7%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>海伍德县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%BE%B7%E6%A3%AE%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>亨德森县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E5%BE%B7%E7%A6%8F%E5%BE%B7%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>赫德福德县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E5%85%8B%E5%8E%BF_(%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>霍克县 (北卡罗来纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%BE%B7%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>海德县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%88%BE%E4%BB%A3%E7%88%BE%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>艾尔代尔县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E5%85%8B%E9%80%8A%E5%8E%BF_(%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>杰克逊县 (北卡罗来纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%E6%96%AF%E9%A0%93%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>约翰斯顿县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%93%8A%E6%96%AF%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>琼斯县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>李县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8B%92%E8%AF%BA%E5%8E%BF_(%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>勒诺县 (北卡罗来纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E8%82%AF%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>林肯县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%82%AF%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>梅肯县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E8%BF%AA%E9%81%9C%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>麦迪逊县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%B8%81%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>马丁县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%85%8B%E9%81%93%E5%A8%81%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>麦克道威县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E5%85%8B%E5%80%AB%E5%A0%A1%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>梅克伦堡县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%88%87%E7%88%BE%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>米切尔县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%93%A5%E9%A6%AC%E5%88%A9%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>蒙哥马利县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E7%88%BE%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>穆尔县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E4%BB%80%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>纳什县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%BC%A2%E8%AB%BE%E5%A8%81%E7%B8%A3</t>
+  </si>
+  <si>
+    <t>新汉诺威县</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%AE%89%E6%99%AE%E9%A0%93%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>北安普顿县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%98%82%E6%96%AF%E6%B4%9B%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>昂斯洛县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E8%98%AD%E6%B2%BB%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>奥兰治县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E5%A7%86%E5%88%A9%E7%A7%91%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>帕姆利科县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E6%96%AF%E9%97%8A%E5%9D%A6%E5%85%8B%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>帕斯阔坦克县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BD%AD%E5%BE%B7%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>彭德县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8F%80%E5%A5%8E%E6%9B%BC%E6%96%AF%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>珀奎曼斯县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8F%80%E6%A3%AE%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>珀森县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E7%89%B9%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>皮特县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%88%BE%E5%85%8B%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>波尔克县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%98%AD%E9%81%93%E5%A4%AB%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>兰道夫县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E5%A5%87%E8%92%99%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>里奇蒙县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E9%81%9C%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>罗伯逊县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BA%AC%E5%AE%89%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>罗京安县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%81%A9%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>罗恩县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E7%91%9F%E7%A6%8F%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>拉瑟福县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A1%91%E6%99%AE%E6%A3%AE%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>桑普森县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%A0%BC%E8%98%AD%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>苏格兰县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%9D%A6%E5%88%A9%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>斯坦利县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%89%98%E5%85%8B%E6%96%AF%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>斯托克斯县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E9%87%8C%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>萨里县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%BA%AB%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>斯温县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E8%98%AD%E8%A5%BF%E7%93%A6%E5%B0%BC%E4%BA%9E%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>特兰西瓦尼亚县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%82%E5%8B%92%E7%88%BE%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>蒂勒尔县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%B0%BC%E6%98%82%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>犹尼昂县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E6%96%AF%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>万斯县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9F%A6%E5%85%8B%E5%8E%BF_(%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>韦克县 (北卡罗来纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E5%80%AB%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>沃伦县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>华盛顿县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E6%89%98%E5%8A%A0%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>沃托加县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9F%8B%E6%81%A9%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>韦恩县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%88%BE%E5%85%8B%E6%96%AF%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>威尔克斯县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%88%BE%E9%81%9C%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>威尔逊县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%BE%B7%E9%87%91%E7%B8%A3</t>
+  </si>
+  <si>
+    <t>亚德金县</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8F%9A%E8%A5%BF%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>扬西县 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
+  </si>
+  <si>
+    <t>权威控制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>虚拟国际规范文档</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
+  </si>
+  <si>
+    <t>美国国会图书馆控制号</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
+  </si>
+  <si>
+    <t>国际标准名称识别码</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>整合规范文档</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/LIBRIS</t>
+  </si>
+  <si>
+    <t>LIBRIS</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>大学文档系统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
+  </si>
+  <si>
+    <t>法国国家图书馆</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_北卡罗来纳州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E%E5%B7%9E%E6%97%97</t>
-  </si>
-  <si>
-    <t>北卡罗来纳州州旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%98%B5%E7%A7%B0%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州昵称列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%B2%B9%E8%84%9A%E8%B7%9F</t>
-  </si>
-  <si>
-    <t>柏油脚跟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>英語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州首府列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%87%8C_(%E5%8C%97%E5%8D%A1%E7%BE%85%E4%BE%86%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>羅里 (北卡羅來納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E6%B4%9B%E7%89%B9_(%E5%8C%97%E5%8D%A1%E7%BE%85%E4%BE%86%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>夏洛特 (北卡羅來納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%9D%A2%E7%A7%AF%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州面积列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州人口列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国州份人口密度列表</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_U.S._states_by_elevation</t>
-  </si>
-  <si>
-    <t>en-List of U.S. states by elevation</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD%E4%BE%9D%E5%8A%A0%E5%85%A5%E8%81%94%E9%82%A6%E9%A1%BA%E5%BA%8F%E6%8E%92%E5%88%97%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国州份依加入联邦顺序排列列表</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_Governors_of_North_Carolina</t>
-  </si>
-  <si>
-    <t>en-List of Governors of North Carolina</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Roy_Cooper</t>
-  </si>
-  <si>
-    <t>en-Roy Cooper</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
-  </si>
-  <si>
-    <t>民主黨 (美國)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_lieutenant_governors_of_North_Carolina</t>
-  </si>
-  <si>
-    <t>en-List of lieutenant governors of North Carolina</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Dan_Forest</t>
-  </si>
-  <si>
-    <t>en-Dan Forest</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
-  </si>
-  <si>
-    <t>共和黨 (美國)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
-  </si>
-  <si>
-    <t>立法机构</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_United_States_Senators_from_North_Carolina</t>
-  </si>
-  <si>
-    <t>en-List of United States Senators from North Carolina</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%C2%B7%E6%B3%A2%E7%88%BE</t>
-  </si>
-  <si>
-    <t>理查·波爾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E5%A7%86%C2%B7%E6%8F%90%E5%8A%9B%E6%96%AF</t>
-  </si>
-  <si>
-    <t>湯姆·提力斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国众议院</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/United_States_congressional_delegations_from_North_Carolina</t>
-  </si>
-  <si>
-    <t>en-United States congressional delegations from North Carolina</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%97%B6%E5%8C%BA%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州时区列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E4%B8%9C%E9%83%A8%E6%97%B6%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>北美东部时区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/UTC-5</t>
-  </si>
-  <si>
-    <t>UTC-5</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/UTC-4</t>
-  </si>
-  <si>
-    <t>UTC-4</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美國各州縮寫列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/ISO_3166-2:US</t>
-  </si>
-  <si>
-    <t>ISO 3166-2-US</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國南部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9D%B1%E5%B2%B8</t>
-  </si>
-  <si>
-    <t>美國東岸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%BF_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>县 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>北美十三殖民地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E8%81%AF%E7%9B%9F%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美利堅聯盟國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E7%89%B9%E5%85%84%E5%BC%9F</t>
-  </si>
-  <si>
-    <t>萊特兄弟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>喬治亞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>南卡罗来纳州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
-  </si>
-  <si>
-    <t>新英格蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B9%BF%E6%B6%A6%E5%A4%A7%E9%99%86%E6%80%A7%E6%B0%94%E5%80%99</t>
-  </si>
-  <si>
-    <t>湿润大陆性气候</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B5%B7%E8%BB%8D</t>
-  </si>
-  <si>
-    <t>美國海軍</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E8%99%9F%E6%88%B0%E8%89%A6_(BB-55)</t>
-  </si>
-  <si>
-    <t>北卡羅萊納號戰艦 (BB-55)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>英國人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%90%86%E4%BA%8C%E4%B8%96_(%E8%8B%B1%E6%A0%BC%E5%85%B0)</t>
-  </si>
-  <si>
-    <t>查理二世 (英格兰)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95</t>
-  </si>
-  <si>
-    <t>美國憲法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A5%BF%E6%B4%8B</t>
-  </si>
-  <si>
-    <t>大西洋</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%88%87%E7%88%BE%E5%B3%B0</t>
-  </si>
-  <si>
-    <t>米切爾峰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E5%9F%83%E8%92%99%E7%89%B9_(%E7%BE%8E%E5%9C%8B)</t>
-  </si>
-  <si>
-    <t>皮埃蒙特 (美國)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E7%BD%95_(%E5%8C%97%E5%8D%A1%E7%BE%85%E4%BE%86%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>德罕 (北卡羅來納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E6%96%AF%E4%BC%AF%E5%8B%92_(%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>格林斯伯勒 (北卡罗来纳州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E5%88%A9_(%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>罗利 (北卡罗来纳州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E8%8E%8E_(%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>温莎 (北卡罗来纳州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E8%80%B6%E7%89%B9%E7%B6%AD%E7%88%BE_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>費耶特維爾 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%91%9E_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>卡瑞 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B3%A2%E5%9B%A0%E7%89%B9_(%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>海波因特 (北卡罗来纳州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%B0%94%E6%98%8E%E9%A1%BF_(%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>威尔明顿 (北卡罗来纳州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%93%B6%E8%A1%8C</t>
-  </si>
-  <si>
-    <t>美国银行</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E5%B6%BA%E5%B1%B1%E8%84%88</t>
-  </si>
-  <si>
-    <t>藍嶺山脈</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%83%9F%E5%B1%B1</t>
-  </si>
-  <si>
-    <t>大烟山</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Croatan_National_Forest</t>
-  </si>
-  <si>
-    <t>en-Croatan National Forest</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Nantahala_National_Forest</t>
-  </si>
-  <si>
-    <t>en-Nantahala National Forest</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Pisgah_National_Forest</t>
-  </si>
-  <si>
-    <t>en-Pisgah National Forest</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Uwharrie_National_Forest</t>
-  </si>
-  <si>
-    <t>en-Uwharrie National Forest</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E7%BE%8E%E8%A3%94%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>拉美裔人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>印第安人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>英國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>德國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD</t>
-  </si>
-  <si>
-    <t>愛爾蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E5%AE%97%E6%95%99</t>
-  </si>
-  <si>
-    <t>基督宗教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%96%B0%E6%95%99</t>
-  </si>
-  <si>
-    <t>基督新教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B8%E7%A4%BC%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>浸礼会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E7%90%86%E5%85%AC%E6%9C%83</t>
-  </si>
-  <si>
-    <t>衛理公會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E8%80%81%E6%95%99%E6%9C%83</t>
-  </si>
-  <si>
-    <t>長老教會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%A4%A9%E4%B8%BB%E6%95%99</t>
-  </si>
-  <si>
-    <t>羅馬天主教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E6%95%99</t>
-  </si>
-  <si>
-    <t>猶太教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%A4%A7%E5%AD%A6%E7%B3%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>北卡罗来纳大学系统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%A4%A7%E5%AD%A6%E6%95%99%E5%A0%82%E5%B1%B1%E5%88%86%E6%A0%A1</t>
-  </si>
-  <si>
-    <t>北卡罗来纳大学教堂山分校</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>北卡罗来纳州立大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E5%85%8B%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>杜克大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E6%A3%AE%E6%9E%97%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>威克森林大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E6%B4%9B%E7%89%B9%E9%81%93%E6%A0%BC%E6%8B%89%E6%96%AF%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
-  </si>
-  <si>
-    <t>夏洛特道格拉斯國際機場</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%BE%8E%E8%88%AA%E7%A9%BA</t>
-  </si>
-  <si>
-    <t>全美航空</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/40%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
-  </si>
-  <si>
-    <t>40號州際公路</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/85%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
-  </si>
-  <si>
-    <t>85號州際公路</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/95%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
-  </si>
-  <si>
-    <t>95號州際公路</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/74%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
-  </si>
-  <si>
-    <t>74號州際公路</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/77%E5%8F%B7%E5%B7%9E%E9%99%85%E5%85%AC%E8%B7%AF</t>
-  </si>
-  <si>
-    <t>77号州际公路</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/26%E5%8F%B7%E5%B7%9E%E9%99%85%E5%85%AC%E8%B7%AF</t>
-  </si>
-  <si>
-    <t>26号州际公路</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E9%BB%91%E8%B1%B9</t>
-  </si>
-  <si>
-    <t>卡羅萊納黑豹</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%81%AF%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>小聯盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E7%99%BD%E8%A5%AA</t>
-  </si>
-  <si>
-    <t>芝加哥白襪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E5%B8%95%E7%81%A3%E5%85%89%E8%8A%92</t>
-  </si>
-  <si>
-    <t>坦帕灣光芒</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94%E9%A6%AC%E6%9E%97%E9%AD%9A</t>
-  </si>
-  <si>
-    <t>佛羅里達馬林魚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E5%A4%AB%E8%98%AD%E5%8D%B0%E5%9C%B0%E5%AE%89%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>克里夫蘭印地安人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E6%B4%9B%E7%A3%AF</t>
-  </si>
-  <si>
-    <t>科羅拉多洛磯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%B9%E8%8C%B2%E5%A0%A1%E6%B5%B7%E7%9B%9C</t>
-  </si>
-  <si>
-    <t>匹茲堡海盜</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/NBA</t>
-  </si>
-  <si>
-    <t>NBA</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E6%B4%9B%E7%89%B9%E9%BB%83%E8%9C%82</t>
-  </si>
-  <si>
-    <t>夏洛特黃蜂</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/NCAA</t>
-  </si>
-  <si>
-    <t>NCAA</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/East_Carolina_Pirates</t>
-  </si>
-  <si>
-    <t>en-East Carolina Pirates</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E5%85%8B%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>杜克大学</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Duke_Blue_Devils</t>
-  </si>
-  <si>
-    <t>en-Duke Blue Devils</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>北卡大学</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/North_Carolina_Tar_Heels</t>
-  </si>
-  <si>
-    <t>en-North Carolina Tar Heels</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%85%8B%E5%BC%97%E6%96%AF%E7%89%B9%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>维克弗斯特大学</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Wake_Forest_Demon_Deacons_men%27s_basketball</t>
-  </si>
-  <si>
-    <t>en-Wake Forest Demon Deacons men's basketball</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/NC_State_Wolfpack</t>
-  </si>
-  <si>
-    <t>en-NC State Wolfpack</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/University_of_North_Carolina_at_Charlotte</t>
-  </si>
-  <si>
-    <t>en-University of North Carolina at Charlotte</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Charlotte_49ers</t>
-  </si>
-  <si>
-    <t>en-Charlotte 49ers</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/WNBA</t>
-  </si>
-  <si>
-    <t>WNBA</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E6%B4%9B%E7%89%B9%E8%9E%AB%E9%87%9D</t>
-  </si>
-  <si>
-    <t>夏洛特螫針</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8A%B1%E5%9B%9B%E7%85%A7%E8%8A%B1</t>
-  </si>
-  <si>
-    <t>大花四照花</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E7%BA%A2%E9%9B%80</t>
-  </si>
-  <si>
-    <t>北美红雀</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
-  </si>
-  <si>
-    <t>美国国会图书馆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>Template talk-美国行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
-  </si>
-  <si>
-    <t>美國行政區劃</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
-  </si>
-  <si>
-    <t>美国州份</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>亚拉巴马州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>阿拉斯加州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>亞利桑那州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>阿肯色州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>加利福尼亚州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>科羅拉多州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>康乃狄克州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%8B%89%E5%8D%8E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>特拉华州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>佛罗里达州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>夏威夷州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E8%BE%BE%E8%8D%B7%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>爱达荷州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>伊利诺伊州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%BA%B3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>印第安纳州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%A5%A5%E7%93%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>艾奥瓦州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>堪薩斯州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>肯塔基州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>路易斯安那州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E5%9B%A0%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>缅因州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E5%85%B0%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>马里兰州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>麻薩諸塞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>密歇根州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>明尼蘇達州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>密西西比州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>密蘇里州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>蒙大拿州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>內布拉斯加州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>内华达州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%BD%95%E5%B8%83%E4%BB%80%E5%B0%94%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>新罕布什尔州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B3%BD%E8%A5%BF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>新泽西州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>新墨西哥州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>纽约州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>北达科他州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>俄亥俄州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>奧克拉荷馬州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>俄勒冈州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>宾夕法尼亚州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>羅德島州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>南达科他州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%BA%B3%E8%A5%BF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>田纳西州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>德克萨斯州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E4%BB%96%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>犹他州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E8%92%99%E7%89%B9%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>佛蒙特州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>弗吉尼亚州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>华盛顿州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>西維吉尼亞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>威斯康辛州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%80%80%E4%BF%84%E6%98%8E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>怀俄明州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>聯邦地區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>华盛顿哥伦比亚特区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>島嶼地區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>美屬薩摩亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>關島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>北马里亚纳群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
-  </si>
-  <si>
-    <t>波多黎各</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>美屬維爾京群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
-  </si>
-  <si>
-    <t>美国本土外小岛屿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>威克島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
-  </si>
-  <si>
-    <t>约翰斯顿环礁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>中途島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
-  </si>
-  <si>
-    <t>金曼礁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
-  </si>
-  <si>
-    <t>帕邁拉環礁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>賈維斯島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>貝克島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>豪蘭島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>纳瓦萨岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%9C%8D%E5%8A%AA%E5%9F%83%E6%B2%83%E6%B5%85%E6%BB%A9</t>
-  </si>
-  <si>
-    <t>巴霍努埃沃浅滩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E5%B0%BC%E6%8B%89%E6%B5%85%E6%BB%A9</t>
-  </si>
-  <si>
-    <t>塞拉尼拉浅滩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BF%9D%E7%95%99%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>印第安保留地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E4%BB%80%E7%BB%B4%E5%B0%94</t>
-  </si>
-  <si>
-    <t>阿什维尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E7%A7%91%E5%BE%B7_(%E5%8C%97%E5%8D%A1%E7%BE%85%E4%BE%86%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>康科德 (北卡羅來納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BE%BE%E5%8B%92%E5%A7%86_(%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>达勒姆 (北卡罗来纳州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%96%AF%E6%89%98%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>加斯托尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E6%96%AF%E9%A0%93-%E6%92%92%E5%86%B7</t>
-  </si>
-  <si>
-    <t>溫斯頓-撒冷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%9B%BC%E6%96%AF%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>阿拉曼斯縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>亞歷山大縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%88%A9%E6%A0%B9%E5%B0%BC%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>阿利根尼縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%A3%AE%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>安森縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E4%BB%80%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>阿什縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%BC%97%E9%87%8C%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>埃弗里縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E7%A6%8F%E7%89%B9%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>博福特縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E8%92%82%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>伯蒂縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%8B%89%E7%99%BB%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>布拉登縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E5%80%AB%E7%91%9E%E5%85%8B%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>不倫瑞克縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8F%AD%E5%BA%B7%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>班康縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%85%8B%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>伯克縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E8%B4%9D%E5%8B%92%E6%96%AF%E5%8E%BF_(%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>卡贝勒斯县 (北卡罗来纳州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%80%83%E5%BE%B7%E5%A8%81%E7%88%BE%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>考德威爾縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E7%99%BB%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>康登縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%89%B9%E5%88%A9%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>加特利縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%96%AF%E9%9F%8B%E7%88%BE%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>卡斯韋爾縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%89%98%E5%B7%B4%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>卡托巴縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%A1%94%E5%A7%86%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>查塔姆縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%87%E7%BE%85%E5%9F%BA%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>切羅基縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E8%90%AC%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>喬萬縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E8%8E%B1%E5%8E%BF_(%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>克莱县 (北卡罗来纳州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E5%A4%AB%E8%98%AD%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>克里夫蘭縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E5%B8%83%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>哥倫布縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%9B%B7%E6%96%87%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>克雷文縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E4%BC%AF%E8%98%AD%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>坎伯蘭縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%AF%E9%87%8C%E5%A1%94%E5%85%8B%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>柯里塔克縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E7%88%BE%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>戴爾縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E7%BB%B4%E6%A3%AE%E5%8E%BF_(%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>戴维森县 (北卡罗来纳州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E7%B6%AD%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>戴維縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E6%99%AE%E6%9E%97%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>杜普林縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E9%BD%8A%E5%BA%B7%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>厄齊康縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E8%B3%BD%E6%96%AF%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>福賽斯縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E8%98%AD%E5%85%8B%E6%9E%97%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>富蘭克林縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%96%AF%E9%A0%93%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>加斯頓縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E8%8C%A8%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>蓋茨縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E8%98%AD%E5%A7%86%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>葛蘭姆縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E8%98%AD%E7%B6%AD%E7%88%BE%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>格蘭維爾縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>格林縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%88%BE%E7%A6%8F%E5%BE%B7%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>吉爾福德縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%88%A9%E6%B3%95%E5%85%8B%E6%96%AF%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>哈利法克斯縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%B0%BC%E7%89%B9%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>哈尼特縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E4%BC%8D%E5%BE%B7%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>海伍德縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%BE%B7%E6%A3%AE%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>亨德森縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E5%BE%B7%E7%A6%8F%E5%BE%B7%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>赫德福德縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E5%85%8B%E5%8E%BF_(%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>霍克县 (北卡罗来纳州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%BE%B7%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>海德縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%88%BE%E4%BB%A3%E7%88%BE%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>艾爾代爾縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E5%85%8B%E9%80%8A%E5%8E%BF_(%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>杰克逊县 (北卡罗来纳州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%E6%96%AF%E9%A0%93%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>約翰斯頓縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%93%8A%E6%96%AF%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>瓊斯縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>李縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8B%92%E8%AF%BA%E5%8E%BF_(%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>勒诺县 (北卡罗来纳州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E8%82%AF%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>林肯縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%82%AF%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>梅肯縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E8%BF%AA%E9%81%9C%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>麥迪遜縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%B8%81%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>馬丁縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%85%8B%E9%81%93%E5%A8%81%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>麥克道威縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E5%85%8B%E5%80%AB%E5%A0%A1%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>梅克倫堡縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%88%87%E7%88%BE%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>米切爾縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%93%A5%E9%A6%AC%E5%88%A9%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>蒙哥馬利縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E7%88%BE%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>穆爾縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E4%BB%80%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>納什縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%BC%A2%E8%AB%BE%E5%A8%81%E7%B8%A3</t>
-  </si>
-  <si>
-    <t>新漢諾威縣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%AE%89%E6%99%AE%E9%A0%93%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>北安普頓縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%98%82%E6%96%AF%E6%B4%9B%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>昂斯洛縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E8%98%AD%E6%B2%BB%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>奧蘭治縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E5%A7%86%E5%88%A9%E7%A7%91%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>帕姆利科縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E6%96%AF%E9%97%8A%E5%9D%A6%E5%85%8B%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>帕斯闊坦克縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BD%AD%E5%BE%B7%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>彭德縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8F%80%E5%A5%8E%E6%9B%BC%E6%96%AF%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>珀奎曼斯縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8F%80%E6%A3%AE%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>珀森縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E7%89%B9%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>皮特縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%88%BE%E5%85%8B%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>波爾克縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%98%AD%E9%81%93%E5%A4%AB%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>蘭道夫縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E5%A5%87%E8%92%99%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>里奇蒙縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E9%81%9C%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>羅伯遜縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BA%AC%E5%AE%89%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>羅京安縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%81%A9%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>羅恩縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E7%91%9F%E7%A6%8F%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>拉瑟福縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A1%91%E6%99%AE%E6%A3%AE%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>桑普森縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%A0%BC%E8%98%AD%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>蘇格蘭縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%9D%A6%E5%88%A9%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>斯坦利縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%89%98%E5%85%8B%E6%96%AF%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>斯托克斯縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E9%87%8C%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>薩里縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%BA%AB%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>斯溫縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E8%98%AD%E8%A5%BF%E7%93%A6%E5%B0%BC%E4%BA%9E%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>特蘭西瓦尼亞縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%82%E5%8B%92%E7%88%BE%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>蒂勒爾縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%B0%BC%E6%98%82%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>猶尼昂縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E6%96%AF%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>萬斯縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9F%A6%E5%85%8B%E5%8E%BF_(%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>韦克县 (北卡罗来纳州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E5%80%AB%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>沃倫縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>華盛頓縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E6%89%98%E5%8A%A0%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>沃托加縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9F%8B%E6%81%A9%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>韋恩縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%88%BE%E5%85%8B%E6%96%AF%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>威爾克斯縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%88%BE%E9%81%9C%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>威爾遜縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%BE%B7%E9%87%91%E7%B8%A3</t>
-  </si>
-  <si>
-    <t>亞德金縣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8F%9A%E8%A5%BF%E7%B8%A3_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>揚西縣 (北卡羅萊納州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
-  </si>
-  <si>
-    <t>權威控制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>虚拟国际规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
-  </si>
-  <si>
-    <t>美国国会图书馆控制号</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
-  </si>
-  <si>
-    <t>國際標準名稱識別碼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>整合规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/LIBRIS</t>
-  </si>
-  <si>
-    <t>LIBRIS</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>大學文檔系統</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
-  </si>
-  <si>
-    <t>法国国家图书馆</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -2166,7 +2172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I308"/>
+  <dimension ref="A1:I310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2655,7 +2661,7 @@
         <v>34</v>
       </c>
       <c r="G17" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H17" t="s">
         <v>4</v>
@@ -2742,7 +2748,7 @@
         <v>40</v>
       </c>
       <c r="G20" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H20" t="s">
         <v>4</v>
@@ -5291,7 +5297,7 @@
         <v>207</v>
       </c>
       <c r="F108" t="s">
-        <v>208</v>
+        <v>164</v>
       </c>
       <c r="G108" t="n">
         <v>4</v>
@@ -5317,10 +5323,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>208</v>
+      </c>
+      <c r="F109" t="s">
         <v>209</v>
-      </c>
-      <c r="F109" t="s">
-        <v>210</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -5346,13 +5352,13 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>210</v>
+      </c>
+      <c r="F110" t="s">
         <v>211</v>
       </c>
-      <c r="F110" t="s">
-        <v>212</v>
-      </c>
       <c r="G110" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H110" t="s">
         <v>4</v>
@@ -5375,10 +5381,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>212</v>
+      </c>
+      <c r="F111" t="s">
         <v>213</v>
-      </c>
-      <c r="F111" t="s">
-        <v>214</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -5404,10 +5410,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>214</v>
+      </c>
+      <c r="F112" t="s">
         <v>215</v>
-      </c>
-      <c r="F112" t="s">
-        <v>216</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5433,10 +5439,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>216</v>
+      </c>
+      <c r="F113" t="s">
         <v>217</v>
-      </c>
-      <c r="F113" t="s">
-        <v>218</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5491,10 +5497,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>218</v>
+      </c>
+      <c r="F115" t="s">
         <v>219</v>
-      </c>
-      <c r="F115" t="s">
-        <v>220</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -5520,10 +5526,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>220</v>
+      </c>
+      <c r="F116" t="s">
         <v>221</v>
-      </c>
-      <c r="F116" t="s">
-        <v>222</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5549,10 +5555,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>222</v>
+      </c>
+      <c r="F117" t="s">
         <v>223</v>
-      </c>
-      <c r="F117" t="s">
-        <v>224</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -5578,10 +5584,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>224</v>
+      </c>
+      <c r="F118" t="s">
         <v>225</v>
-      </c>
-      <c r="F118" t="s">
-        <v>226</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5607,10 +5613,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>226</v>
+      </c>
+      <c r="F119" t="s">
         <v>227</v>
-      </c>
-      <c r="F119" t="s">
-        <v>228</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5636,10 +5642,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>228</v>
+      </c>
+      <c r="F120" t="s">
         <v>229</v>
-      </c>
-      <c r="F120" t="s">
-        <v>230</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5665,10 +5671,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>230</v>
+      </c>
+      <c r="F121" t="s">
         <v>231</v>
-      </c>
-      <c r="F121" t="s">
-        <v>232</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5694,10 +5700,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>232</v>
+      </c>
+      <c r="F122" t="s">
         <v>233</v>
-      </c>
-      <c r="F122" t="s">
-        <v>234</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5723,10 +5729,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>234</v>
+      </c>
+      <c r="F123" t="s">
         <v>235</v>
-      </c>
-      <c r="F123" t="s">
-        <v>236</v>
       </c>
       <c r="G123" t="n">
         <v>4</v>
@@ -5752,10 +5758,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>236</v>
+      </c>
+      <c r="F124" t="s">
         <v>237</v>
-      </c>
-      <c r="F124" t="s">
-        <v>238</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5781,13 +5787,13 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>238</v>
+      </c>
+      <c r="F125" t="s">
         <v>239</v>
       </c>
-      <c r="F125" t="s">
-        <v>240</v>
-      </c>
       <c r="G125" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H125" t="s">
         <v>4</v>
@@ -5810,10 +5816,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>240</v>
+      </c>
+      <c r="F126" t="s">
         <v>241</v>
-      </c>
-      <c r="F126" t="s">
-        <v>242</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5839,10 +5845,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>242</v>
+      </c>
+      <c r="F127" t="s">
         <v>243</v>
-      </c>
-      <c r="F127" t="s">
-        <v>244</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5868,10 +5874,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>244</v>
+      </c>
+      <c r="F128" t="s">
         <v>245</v>
-      </c>
-      <c r="F128" t="s">
-        <v>246</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5897,10 +5903,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>246</v>
+      </c>
+      <c r="F129" t="s">
         <v>247</v>
-      </c>
-      <c r="F129" t="s">
-        <v>248</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5926,10 +5932,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>248</v>
+      </c>
+      <c r="F130" t="s">
         <v>249</v>
-      </c>
-      <c r="F130" t="s">
-        <v>250</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5955,10 +5961,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>250</v>
+      </c>
+      <c r="F131" t="s">
         <v>251</v>
-      </c>
-      <c r="F131" t="s">
-        <v>252</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -5984,10 +5990,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>252</v>
+      </c>
+      <c r="F132" t="s">
         <v>253</v>
-      </c>
-      <c r="F132" t="s">
-        <v>254</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6013,10 +6019,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>254</v>
+      </c>
+      <c r="F133" t="s">
         <v>255</v>
-      </c>
-      <c r="F133" t="s">
-        <v>256</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6042,10 +6048,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>256</v>
+      </c>
+      <c r="F134" t="s">
         <v>257</v>
-      </c>
-      <c r="F134" t="s">
-        <v>258</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -6100,10 +6106,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>258</v>
+      </c>
+      <c r="F136" t="s">
         <v>259</v>
-      </c>
-      <c r="F136" t="s">
-        <v>260</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6129,10 +6135,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>260</v>
+      </c>
+      <c r="F137" t="s">
         <v>261</v>
-      </c>
-      <c r="F137" t="s">
-        <v>262</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6158,10 +6164,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>262</v>
+      </c>
+      <c r="F138" t="s">
         <v>263</v>
-      </c>
-      <c r="F138" t="s">
-        <v>264</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6187,10 +6193,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>264</v>
+      </c>
+      <c r="F139" t="s">
         <v>265</v>
-      </c>
-      <c r="F139" t="s">
-        <v>266</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6216,10 +6222,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>266</v>
+      </c>
+      <c r="F140" t="s">
         <v>267</v>
-      </c>
-      <c r="F140" t="s">
-        <v>268</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6245,10 +6251,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>268</v>
+      </c>
+      <c r="F141" t="s">
         <v>269</v>
-      </c>
-      <c r="F141" t="s">
-        <v>270</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6274,10 +6280,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>270</v>
+      </c>
+      <c r="F142" t="s">
         <v>271</v>
-      </c>
-      <c r="F142" t="s">
-        <v>272</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6303,10 +6309,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>272</v>
+      </c>
+      <c r="F143" t="s">
         <v>273</v>
-      </c>
-      <c r="F143" t="s">
-        <v>274</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6332,10 +6338,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>274</v>
+      </c>
+      <c r="F144" t="s">
         <v>275</v>
-      </c>
-      <c r="F144" t="s">
-        <v>276</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6361,10 +6367,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>276</v>
+      </c>
+      <c r="F145" t="s">
         <v>277</v>
-      </c>
-      <c r="F145" t="s">
-        <v>278</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6390,10 +6396,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>278</v>
+      </c>
+      <c r="F146" t="s">
         <v>279</v>
-      </c>
-      <c r="F146" t="s">
-        <v>280</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6419,10 +6425,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>280</v>
+      </c>
+      <c r="F147" t="s">
         <v>281</v>
-      </c>
-      <c r="F147" t="s">
-        <v>282</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6448,10 +6454,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>282</v>
+      </c>
+      <c r="F148" t="s">
         <v>283</v>
-      </c>
-      <c r="F148" t="s">
-        <v>284</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6477,10 +6483,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>284</v>
+      </c>
+      <c r="F149" t="s">
         <v>285</v>
-      </c>
-      <c r="F149" t="s">
-        <v>286</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6506,10 +6512,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>286</v>
+      </c>
+      <c r="F150" t="s">
         <v>287</v>
-      </c>
-      <c r="F150" t="s">
-        <v>288</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6535,10 +6541,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>288</v>
+      </c>
+      <c r="F151" t="s">
         <v>289</v>
-      </c>
-      <c r="F151" t="s">
-        <v>290</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6564,10 +6570,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>290</v>
+      </c>
+      <c r="F152" t="s">
         <v>291</v>
-      </c>
-      <c r="F152" t="s">
-        <v>292</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6593,10 +6599,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>292</v>
+      </c>
+      <c r="F153" t="s">
         <v>293</v>
-      </c>
-      <c r="F153" t="s">
-        <v>294</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6622,10 +6628,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>294</v>
+      </c>
+      <c r="F154" t="s">
         <v>295</v>
-      </c>
-      <c r="F154" t="s">
-        <v>296</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6651,10 +6657,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>296</v>
+      </c>
+      <c r="F155" t="s">
         <v>297</v>
-      </c>
-      <c r="F155" t="s">
-        <v>298</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6680,10 +6686,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>298</v>
+      </c>
+      <c r="F156" t="s">
         <v>299</v>
-      </c>
-      <c r="F156" t="s">
-        <v>300</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6709,10 +6715,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>300</v>
+      </c>
+      <c r="F157" t="s">
         <v>301</v>
-      </c>
-      <c r="F157" t="s">
-        <v>302</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6738,10 +6744,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>302</v>
+      </c>
+      <c r="F158" t="s">
         <v>303</v>
-      </c>
-      <c r="F158" t="s">
-        <v>304</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6767,10 +6773,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>304</v>
+      </c>
+      <c r="F159" t="s">
         <v>305</v>
-      </c>
-      <c r="F159" t="s">
-        <v>306</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6796,10 +6802,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>306</v>
+      </c>
+      <c r="F160" t="s">
         <v>307</v>
-      </c>
-      <c r="F160" t="s">
-        <v>308</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6825,10 +6831,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>308</v>
+      </c>
+      <c r="F161" t="s">
         <v>309</v>
-      </c>
-      <c r="F161" t="s">
-        <v>310</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6854,10 +6860,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>310</v>
+      </c>
+      <c r="F162" t="s">
         <v>311</v>
-      </c>
-      <c r="F162" t="s">
-        <v>312</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6883,10 +6889,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>312</v>
+      </c>
+      <c r="F163" t="s">
         <v>313</v>
-      </c>
-      <c r="F163" t="s">
-        <v>314</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6941,10 +6947,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>314</v>
+      </c>
+      <c r="F165" t="s">
         <v>315</v>
-      </c>
-      <c r="F165" t="s">
-        <v>316</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6970,10 +6976,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>316</v>
+      </c>
+      <c r="F166" t="s">
         <v>317</v>
-      </c>
-      <c r="F166" t="s">
-        <v>318</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6999,10 +7005,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>318</v>
+      </c>
+      <c r="F167" t="s">
         <v>319</v>
-      </c>
-      <c r="F167" t="s">
-        <v>320</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7028,10 +7034,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>320</v>
+      </c>
+      <c r="F168" t="s">
         <v>321</v>
-      </c>
-      <c r="F168" t="s">
-        <v>322</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7057,10 +7063,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>322</v>
+      </c>
+      <c r="F169" t="s">
         <v>323</v>
-      </c>
-      <c r="F169" t="s">
-        <v>324</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7086,10 +7092,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>324</v>
+      </c>
+      <c r="F170" t="s">
         <v>325</v>
-      </c>
-      <c r="F170" t="s">
-        <v>326</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -7115,10 +7121,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>326</v>
+      </c>
+      <c r="F171" t="s">
         <v>327</v>
-      </c>
-      <c r="F171" t="s">
-        <v>328</v>
       </c>
       <c r="G171" t="n">
         <v>2</v>
@@ -7144,10 +7150,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>328</v>
+      </c>
+      <c r="F172" t="s">
         <v>329</v>
-      </c>
-      <c r="F172" t="s">
-        <v>330</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7173,10 +7179,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>330</v>
+      </c>
+      <c r="F173" t="s">
         <v>331</v>
-      </c>
-      <c r="F173" t="s">
-        <v>332</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7202,10 +7208,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>332</v>
+      </c>
+      <c r="F174" t="s">
         <v>333</v>
-      </c>
-      <c r="F174" t="s">
-        <v>334</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7231,10 +7237,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>334</v>
+      </c>
+      <c r="F175" t="s">
         <v>335</v>
-      </c>
-      <c r="F175" t="s">
-        <v>336</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7260,10 +7266,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>336</v>
+      </c>
+      <c r="F176" t="s">
         <v>337</v>
-      </c>
-      <c r="F176" t="s">
-        <v>338</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7289,10 +7295,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>338</v>
+      </c>
+      <c r="F177" t="s">
         <v>339</v>
-      </c>
-      <c r="F177" t="s">
-        <v>340</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7318,10 +7324,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>340</v>
+      </c>
+      <c r="F178" t="s">
         <v>341</v>
-      </c>
-      <c r="F178" t="s">
-        <v>342</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7347,10 +7353,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>342</v>
+      </c>
+      <c r="F179" t="s">
         <v>343</v>
-      </c>
-      <c r="F179" t="s">
-        <v>344</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7376,10 +7382,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>344</v>
+      </c>
+      <c r="F180" t="s">
         <v>345</v>
-      </c>
-      <c r="F180" t="s">
-        <v>346</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7405,10 +7411,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>346</v>
+      </c>
+      <c r="F181" t="s">
         <v>347</v>
-      </c>
-      <c r="F181" t="s">
-        <v>348</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7434,10 +7440,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>348</v>
+      </c>
+      <c r="F182" t="s">
         <v>349</v>
-      </c>
-      <c r="F182" t="s">
-        <v>350</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7463,10 +7469,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>350</v>
+      </c>
+      <c r="F183" t="s">
         <v>351</v>
-      </c>
-      <c r="F183" t="s">
-        <v>352</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7492,10 +7498,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>352</v>
+      </c>
+      <c r="F184" t="s">
         <v>353</v>
-      </c>
-      <c r="F184" t="s">
-        <v>354</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7521,10 +7527,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>354</v>
+      </c>
+      <c r="F185" t="s">
         <v>355</v>
-      </c>
-      <c r="F185" t="s">
-        <v>356</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7550,10 +7556,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>356</v>
+      </c>
+      <c r="F186" t="s">
         <v>357</v>
-      </c>
-      <c r="F186" t="s">
-        <v>358</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7579,10 +7585,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>358</v>
+      </c>
+      <c r="F187" t="s">
         <v>359</v>
-      </c>
-      <c r="F187" t="s">
-        <v>360</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7608,10 +7614,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>360</v>
+      </c>
+      <c r="F188" t="s">
         <v>361</v>
-      </c>
-      <c r="F188" t="s">
-        <v>362</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7637,10 +7643,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>362</v>
+      </c>
+      <c r="F189" t="s">
         <v>363</v>
-      </c>
-      <c r="F189" t="s">
-        <v>364</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7666,10 +7672,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>364</v>
+      </c>
+      <c r="F190" t="s">
         <v>365</v>
-      </c>
-      <c r="F190" t="s">
-        <v>366</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7695,10 +7701,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>366</v>
+      </c>
+      <c r="F191" t="s">
         <v>367</v>
-      </c>
-      <c r="F191" t="s">
-        <v>368</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7724,10 +7730,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>368</v>
+      </c>
+      <c r="F192" t="s">
         <v>369</v>
-      </c>
-      <c r="F192" t="s">
-        <v>370</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7753,10 +7759,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>370</v>
+      </c>
+      <c r="F193" t="s">
         <v>371</v>
-      </c>
-      <c r="F193" t="s">
-        <v>372</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7782,10 +7788,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>372</v>
+      </c>
+      <c r="F194" t="s">
         <v>373</v>
-      </c>
-      <c r="F194" t="s">
-        <v>374</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7811,10 +7817,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>374</v>
+      </c>
+      <c r="F195" t="s">
         <v>375</v>
-      </c>
-      <c r="F195" t="s">
-        <v>376</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7840,10 +7846,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>376</v>
+      </c>
+      <c r="F196" t="s">
         <v>377</v>
-      </c>
-      <c r="F196" t="s">
-        <v>378</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7869,10 +7875,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>378</v>
+      </c>
+      <c r="F197" t="s">
         <v>379</v>
-      </c>
-      <c r="F197" t="s">
-        <v>380</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7898,10 +7904,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>380</v>
+      </c>
+      <c r="F198" t="s">
         <v>381</v>
-      </c>
-      <c r="F198" t="s">
-        <v>382</v>
       </c>
       <c r="G198" t="n">
         <v>2</v>
@@ -7927,10 +7933,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>382</v>
+      </c>
+      <c r="F199" t="s">
         <v>383</v>
-      </c>
-      <c r="F199" t="s">
-        <v>384</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7985,10 +7991,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>384</v>
+      </c>
+      <c r="F201" t="s">
         <v>385</v>
-      </c>
-      <c r="F201" t="s">
-        <v>386</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8014,10 +8020,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>386</v>
+      </c>
+      <c r="F202" t="s">
         <v>387</v>
-      </c>
-      <c r="F202" t="s">
-        <v>388</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8043,10 +8049,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>388</v>
+      </c>
+      <c r="F203" t="s">
         <v>389</v>
-      </c>
-      <c r="F203" t="s">
-        <v>390</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8072,10 +8078,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>390</v>
+      </c>
+      <c r="F204" t="s">
         <v>391</v>
-      </c>
-      <c r="F204" t="s">
-        <v>392</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8101,10 +8107,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>392</v>
+      </c>
+      <c r="F205" t="s">
         <v>393</v>
-      </c>
-      <c r="F205" t="s">
-        <v>394</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8130,10 +8136,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>394</v>
+      </c>
+      <c r="F206" t="s">
         <v>395</v>
-      </c>
-      <c r="F206" t="s">
-        <v>396</v>
       </c>
       <c r="G206" t="n">
         <v>2</v>
@@ -8159,10 +8165,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>396</v>
+      </c>
+      <c r="F207" t="s">
         <v>397</v>
-      </c>
-      <c r="F207" t="s">
-        <v>398</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8188,10 +8194,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>398</v>
+      </c>
+      <c r="F208" t="s">
         <v>399</v>
-      </c>
-      <c r="F208" t="s">
-        <v>400</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8217,10 +8223,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>400</v>
+      </c>
+      <c r="F209" t="s">
         <v>401</v>
-      </c>
-      <c r="F209" t="s">
-        <v>402</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8246,10 +8252,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>402</v>
+      </c>
+      <c r="F210" t="s">
         <v>403</v>
-      </c>
-      <c r="F210" t="s">
-        <v>404</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8275,10 +8281,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>404</v>
+      </c>
+      <c r="F211" t="s">
         <v>405</v>
-      </c>
-      <c r="F211" t="s">
-        <v>406</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8304,10 +8310,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>406</v>
+      </c>
+      <c r="F212" t="s">
         <v>407</v>
-      </c>
-      <c r="F212" t="s">
-        <v>408</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8333,10 +8339,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>408</v>
+      </c>
+      <c r="F213" t="s">
         <v>409</v>
-      </c>
-      <c r="F213" t="s">
-        <v>410</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8362,10 +8368,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>410</v>
+      </c>
+      <c r="F214" t="s">
         <v>411</v>
-      </c>
-      <c r="F214" t="s">
-        <v>412</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8391,10 +8397,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>412</v>
+      </c>
+      <c r="F215" t="s">
         <v>413</v>
-      </c>
-      <c r="F215" t="s">
-        <v>414</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8420,10 +8426,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>414</v>
+      </c>
+      <c r="F216" t="s">
         <v>415</v>
-      </c>
-      <c r="F216" t="s">
-        <v>416</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8449,10 +8455,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>416</v>
+      </c>
+      <c r="F217" t="s">
         <v>417</v>
-      </c>
-      <c r="F217" t="s">
-        <v>418</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8478,10 +8484,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>418</v>
+      </c>
+      <c r="F218" t="s">
         <v>419</v>
-      </c>
-      <c r="F218" t="s">
-        <v>420</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8507,10 +8513,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>420</v>
+      </c>
+      <c r="F219" t="s">
         <v>421</v>
-      </c>
-      <c r="F219" t="s">
-        <v>422</v>
       </c>
       <c r="G219" t="n">
         <v>2</v>
@@ -8536,10 +8542,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>422</v>
+      </c>
+      <c r="F220" t="s">
         <v>423</v>
-      </c>
-      <c r="F220" t="s">
-        <v>424</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8565,10 +8571,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>424</v>
+      </c>
+      <c r="F221" t="s">
         <v>425</v>
-      </c>
-      <c r="F221" t="s">
-        <v>426</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8594,10 +8600,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>426</v>
+      </c>
+      <c r="F222" t="s">
         <v>427</v>
-      </c>
-      <c r="F222" t="s">
-        <v>428</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8623,10 +8629,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>428</v>
+      </c>
+      <c r="F223" t="s">
         <v>429</v>
-      </c>
-      <c r="F223" t="s">
-        <v>430</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8652,10 +8658,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>430</v>
+      </c>
+      <c r="F224" t="s">
         <v>431</v>
-      </c>
-      <c r="F224" t="s">
-        <v>432</v>
       </c>
       <c r="G224" t="n">
         <v>3</v>
@@ -8681,10 +8687,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>432</v>
+      </c>
+      <c r="F225" t="s">
         <v>433</v>
-      </c>
-      <c r="F225" t="s">
-        <v>434</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8710,10 +8716,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>434</v>
+      </c>
+      <c r="F226" t="s">
         <v>435</v>
-      </c>
-      <c r="F226" t="s">
-        <v>436</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8739,10 +8745,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>436</v>
+      </c>
+      <c r="F227" t="s">
         <v>437</v>
-      </c>
-      <c r="F227" t="s">
-        <v>438</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8768,10 +8774,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
+        <v>438</v>
+      </c>
+      <c r="F228" t="s">
         <v>439</v>
-      </c>
-      <c r="F228" t="s">
-        <v>440</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8797,10 +8803,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
+        <v>440</v>
+      </c>
+      <c r="F229" t="s">
         <v>441</v>
-      </c>
-      <c r="F229" t="s">
-        <v>442</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8826,10 +8832,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
+        <v>442</v>
+      </c>
+      <c r="F230" t="s">
         <v>443</v>
-      </c>
-      <c r="F230" t="s">
-        <v>444</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8855,10 +8861,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
+        <v>444</v>
+      </c>
+      <c r="F231" t="s">
         <v>445</v>
-      </c>
-      <c r="F231" t="s">
-        <v>446</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8884,10 +8890,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
+        <v>446</v>
+      </c>
+      <c r="F232" t="s">
         <v>447</v>
-      </c>
-      <c r="F232" t="s">
-        <v>448</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8913,10 +8919,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
+        <v>448</v>
+      </c>
+      <c r="F233" t="s">
         <v>449</v>
-      </c>
-      <c r="F233" t="s">
-        <v>450</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8942,10 +8948,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
+        <v>450</v>
+      </c>
+      <c r="F234" t="s">
         <v>451</v>
-      </c>
-      <c r="F234" t="s">
-        <v>452</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8971,10 +8977,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
+        <v>452</v>
+      </c>
+      <c r="F235" t="s">
         <v>453</v>
-      </c>
-      <c r="F235" t="s">
-        <v>454</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9000,10 +9006,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
+        <v>454</v>
+      </c>
+      <c r="F236" t="s">
         <v>455</v>
-      </c>
-      <c r="F236" t="s">
-        <v>456</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9029,10 +9035,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
+        <v>456</v>
+      </c>
+      <c r="F237" t="s">
         <v>457</v>
-      </c>
-      <c r="F237" t="s">
-        <v>458</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9058,10 +9064,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
+        <v>458</v>
+      </c>
+      <c r="F238" t="s">
         <v>459</v>
-      </c>
-      <c r="F238" t="s">
-        <v>460</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9087,10 +9093,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
+        <v>460</v>
+      </c>
+      <c r="F239" t="s">
         <v>461</v>
-      </c>
-      <c r="F239" t="s">
-        <v>462</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9116,10 +9122,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
+        <v>462</v>
+      </c>
+      <c r="F240" t="s">
         <v>463</v>
-      </c>
-      <c r="F240" t="s">
-        <v>464</v>
       </c>
       <c r="G240" t="n">
         <v>7</v>
@@ -9145,10 +9151,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
+        <v>464</v>
+      </c>
+      <c r="F241" t="s">
         <v>465</v>
-      </c>
-      <c r="F241" t="s">
-        <v>466</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9174,10 +9180,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
+        <v>466</v>
+      </c>
+      <c r="F242" t="s">
         <v>467</v>
-      </c>
-      <c r="F242" t="s">
-        <v>468</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9203,10 +9209,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
+        <v>468</v>
+      </c>
+      <c r="F243" t="s">
         <v>469</v>
-      </c>
-      <c r="F243" t="s">
-        <v>470</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9232,10 +9238,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
+        <v>470</v>
+      </c>
+      <c r="F244" t="s">
         <v>471</v>
-      </c>
-      <c r="F244" t="s">
-        <v>472</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9261,10 +9267,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
+        <v>472</v>
+      </c>
+      <c r="F245" t="s">
         <v>473</v>
-      </c>
-      <c r="F245" t="s">
-        <v>474</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9290,10 +9296,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
+        <v>474</v>
+      </c>
+      <c r="F246" t="s">
         <v>475</v>
-      </c>
-      <c r="F246" t="s">
-        <v>476</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9319,10 +9325,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
+        <v>476</v>
+      </c>
+      <c r="F247" t="s">
         <v>477</v>
-      </c>
-      <c r="F247" t="s">
-        <v>478</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9348,10 +9354,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
+        <v>478</v>
+      </c>
+      <c r="F248" t="s">
         <v>479</v>
-      </c>
-      <c r="F248" t="s">
-        <v>480</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9377,10 +9383,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
+        <v>480</v>
+      </c>
+      <c r="F249" t="s">
         <v>481</v>
-      </c>
-      <c r="F249" t="s">
-        <v>482</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9406,10 +9412,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
+        <v>482</v>
+      </c>
+      <c r="F250" t="s">
         <v>483</v>
-      </c>
-      <c r="F250" t="s">
-        <v>484</v>
       </c>
       <c r="G250" t="n">
         <v>2</v>
@@ -9435,10 +9441,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
+        <v>484</v>
+      </c>
+      <c r="F251" t="s">
         <v>485</v>
-      </c>
-      <c r="F251" t="s">
-        <v>486</v>
       </c>
       <c r="G251" t="n">
         <v>2</v>
@@ -9464,10 +9470,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
+        <v>486</v>
+      </c>
+      <c r="F252" t="s">
         <v>487</v>
-      </c>
-      <c r="F252" t="s">
-        <v>488</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9493,10 +9499,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
+        <v>488</v>
+      </c>
+      <c r="F253" t="s">
         <v>489</v>
-      </c>
-      <c r="F253" t="s">
-        <v>490</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9522,10 +9528,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
+        <v>490</v>
+      </c>
+      <c r="F254" t="s">
         <v>491</v>
-      </c>
-      <c r="F254" t="s">
-        <v>492</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9551,10 +9557,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
+        <v>492</v>
+      </c>
+      <c r="F255" t="s">
         <v>493</v>
-      </c>
-      <c r="F255" t="s">
-        <v>494</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9580,10 +9586,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
+        <v>494</v>
+      </c>
+      <c r="F256" t="s">
         <v>495</v>
-      </c>
-      <c r="F256" t="s">
-        <v>496</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9609,10 +9615,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
+        <v>496</v>
+      </c>
+      <c r="F257" t="s">
         <v>497</v>
-      </c>
-      <c r="F257" t="s">
-        <v>498</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9638,10 +9644,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
+        <v>498</v>
+      </c>
+      <c r="F258" t="s">
         <v>499</v>
-      </c>
-      <c r="F258" t="s">
-        <v>500</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9667,10 +9673,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
+        <v>500</v>
+      </c>
+      <c r="F259" t="s">
         <v>501</v>
-      </c>
-      <c r="F259" t="s">
-        <v>502</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9696,10 +9702,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
+        <v>502</v>
+      </c>
+      <c r="F260" t="s">
         <v>503</v>
-      </c>
-      <c r="F260" t="s">
-        <v>504</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9725,10 +9731,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
+        <v>504</v>
+      </c>
+      <c r="F261" t="s">
         <v>505</v>
-      </c>
-      <c r="F261" t="s">
-        <v>506</v>
       </c>
       <c r="G261" t="n">
         <v>2</v>
@@ -9754,10 +9760,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
+        <v>506</v>
+      </c>
+      <c r="F262" t="s">
         <v>507</v>
-      </c>
-      <c r="F262" t="s">
-        <v>508</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9783,10 +9789,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
+        <v>508</v>
+      </c>
+      <c r="F263" t="s">
         <v>509</v>
-      </c>
-      <c r="F263" t="s">
-        <v>510</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9812,10 +9818,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
+        <v>510</v>
+      </c>
+      <c r="F264" t="s">
         <v>511</v>
-      </c>
-      <c r="F264" t="s">
-        <v>512</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9841,10 +9847,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
+        <v>512</v>
+      </c>
+      <c r="F265" t="s">
         <v>513</v>
-      </c>
-      <c r="F265" t="s">
-        <v>514</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9870,10 +9876,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
+        <v>514</v>
+      </c>
+      <c r="F266" t="s">
         <v>515</v>
-      </c>
-      <c r="F266" t="s">
-        <v>516</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9899,10 +9905,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
+        <v>516</v>
+      </c>
+      <c r="F267" t="s">
         <v>517</v>
-      </c>
-      <c r="F267" t="s">
-        <v>518</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -9928,10 +9934,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
+        <v>518</v>
+      </c>
+      <c r="F268" t="s">
         <v>519</v>
-      </c>
-      <c r="F268" t="s">
-        <v>520</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -9957,10 +9963,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
+        <v>520</v>
+      </c>
+      <c r="F269" t="s">
         <v>521</v>
-      </c>
-      <c r="F269" t="s">
-        <v>522</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -9986,10 +9992,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
+        <v>522</v>
+      </c>
+      <c r="F270" t="s">
         <v>523</v>
-      </c>
-      <c r="F270" t="s">
-        <v>524</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10015,10 +10021,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
+        <v>524</v>
+      </c>
+      <c r="F271" t="s">
         <v>525</v>
-      </c>
-      <c r="F271" t="s">
-        <v>526</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10044,10 +10050,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
+        <v>526</v>
+      </c>
+      <c r="F272" t="s">
         <v>527</v>
-      </c>
-      <c r="F272" t="s">
-        <v>528</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10073,10 +10079,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
+        <v>528</v>
+      </c>
+      <c r="F273" t="s">
         <v>529</v>
-      </c>
-      <c r="F273" t="s">
-        <v>530</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10102,10 +10108,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
+        <v>530</v>
+      </c>
+      <c r="F274" t="s">
         <v>531</v>
-      </c>
-      <c r="F274" t="s">
-        <v>532</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10131,10 +10137,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
+        <v>532</v>
+      </c>
+      <c r="F275" t="s">
         <v>533</v>
-      </c>
-      <c r="F275" t="s">
-        <v>534</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10160,10 +10166,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
+        <v>534</v>
+      </c>
+      <c r="F276" t="s">
         <v>535</v>
-      </c>
-      <c r="F276" t="s">
-        <v>536</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10189,10 +10195,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
+        <v>536</v>
+      </c>
+      <c r="F277" t="s">
         <v>537</v>
-      </c>
-      <c r="F277" t="s">
-        <v>538</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10218,10 +10224,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
+        <v>538</v>
+      </c>
+      <c r="F278" t="s">
         <v>539</v>
-      </c>
-      <c r="F278" t="s">
-        <v>540</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10247,10 +10253,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
+        <v>540</v>
+      </c>
+      <c r="F279" t="s">
         <v>541</v>
-      </c>
-      <c r="F279" t="s">
-        <v>542</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10276,10 +10282,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
+        <v>542</v>
+      </c>
+      <c r="F280" t="s">
         <v>543</v>
-      </c>
-      <c r="F280" t="s">
-        <v>544</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10305,10 +10311,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
+        <v>544</v>
+      </c>
+      <c r="F281" t="s">
         <v>545</v>
-      </c>
-      <c r="F281" t="s">
-        <v>546</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10334,10 +10340,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
+        <v>546</v>
+      </c>
+      <c r="F282" t="s">
         <v>547</v>
-      </c>
-      <c r="F282" t="s">
-        <v>548</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10363,10 +10369,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
+        <v>548</v>
+      </c>
+      <c r="F283" t="s">
         <v>549</v>
-      </c>
-      <c r="F283" t="s">
-        <v>550</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10392,10 +10398,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
+        <v>550</v>
+      </c>
+      <c r="F284" t="s">
         <v>551</v>
-      </c>
-      <c r="F284" t="s">
-        <v>552</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10421,10 +10427,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
+        <v>552</v>
+      </c>
+      <c r="F285" t="s">
         <v>553</v>
-      </c>
-      <c r="F285" t="s">
-        <v>554</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10450,10 +10456,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
+        <v>554</v>
+      </c>
+      <c r="F286" t="s">
         <v>555</v>
-      </c>
-      <c r="F286" t="s">
-        <v>556</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10479,10 +10485,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
+        <v>556</v>
+      </c>
+      <c r="F287" t="s">
         <v>557</v>
-      </c>
-      <c r="F287" t="s">
-        <v>558</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10508,10 +10514,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
+        <v>558</v>
+      </c>
+      <c r="F288" t="s">
         <v>559</v>
-      </c>
-      <c r="F288" t="s">
-        <v>560</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10537,10 +10543,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
+        <v>560</v>
+      </c>
+      <c r="F289" t="s">
         <v>561</v>
-      </c>
-      <c r="F289" t="s">
-        <v>562</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10566,10 +10572,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
+        <v>562</v>
+      </c>
+      <c r="F290" t="s">
         <v>563</v>
-      </c>
-      <c r="F290" t="s">
-        <v>564</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10595,10 +10601,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
+        <v>564</v>
+      </c>
+      <c r="F291" t="s">
         <v>565</v>
-      </c>
-      <c r="F291" t="s">
-        <v>566</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10624,10 +10630,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
+        <v>566</v>
+      </c>
+      <c r="F292" t="s">
         <v>567</v>
-      </c>
-      <c r="F292" t="s">
-        <v>568</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10653,10 +10659,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
+        <v>568</v>
+      </c>
+      <c r="F293" t="s">
         <v>569</v>
-      </c>
-      <c r="F293" t="s">
-        <v>570</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10682,10 +10688,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
+        <v>570</v>
+      </c>
+      <c r="F294" t="s">
         <v>571</v>
-      </c>
-      <c r="F294" t="s">
-        <v>572</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10711,10 +10717,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
+        <v>572</v>
+      </c>
+      <c r="F295" t="s">
         <v>573</v>
-      </c>
-      <c r="F295" t="s">
-        <v>574</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10740,10 +10746,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
+        <v>574</v>
+      </c>
+      <c r="F296" t="s">
         <v>575</v>
-      </c>
-      <c r="F296" t="s">
-        <v>576</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10769,10 +10775,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
+        <v>576</v>
+      </c>
+      <c r="F297" t="s">
         <v>577</v>
-      </c>
-      <c r="F297" t="s">
-        <v>578</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -10798,10 +10804,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
+        <v>578</v>
+      </c>
+      <c r="F298" t="s">
         <v>579</v>
-      </c>
-      <c r="F298" t="s">
-        <v>580</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -10827,10 +10833,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
+        <v>580</v>
+      </c>
+      <c r="F299" t="s">
         <v>581</v>
-      </c>
-      <c r="F299" t="s">
-        <v>582</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -10856,10 +10862,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
+        <v>582</v>
+      </c>
+      <c r="F300" t="s">
         <v>583</v>
-      </c>
-      <c r="F300" t="s">
-        <v>584</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -10885,10 +10891,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
+        <v>584</v>
+      </c>
+      <c r="F301" t="s">
         <v>585</v>
-      </c>
-      <c r="F301" t="s">
-        <v>586</v>
       </c>
       <c r="G301" t="n">
         <v>3</v>
@@ -10914,10 +10920,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
+        <v>586</v>
+      </c>
+      <c r="F302" t="s">
         <v>587</v>
-      </c>
-      <c r="F302" t="s">
-        <v>588</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -10943,10 +10949,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
+        <v>588</v>
+      </c>
+      <c r="F303" t="s">
         <v>589</v>
-      </c>
-      <c r="F303" t="s">
-        <v>590</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -10972,10 +10978,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
+        <v>590</v>
+      </c>
+      <c r="F304" t="s">
         <v>591</v>
-      </c>
-      <c r="F304" t="s">
-        <v>592</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11001,10 +11007,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
+        <v>592</v>
+      </c>
+      <c r="F305" t="s">
         <v>593</v>
-      </c>
-      <c r="F305" t="s">
-        <v>594</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11030,10 +11036,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
+        <v>594</v>
+      </c>
+      <c r="F306" t="s">
         <v>595</v>
-      </c>
-      <c r="F306" t="s">
-        <v>596</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11059,10 +11065,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
+        <v>596</v>
+      </c>
+      <c r="F307" t="s">
         <v>597</v>
-      </c>
-      <c r="F307" t="s">
-        <v>598</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11088,18 +11094,76 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
+        <v>598</v>
+      </c>
+      <c r="F308" t="s">
         <v>599</v>
       </c>
-      <c r="F308" t="s">
+      <c r="G308" t="n">
+        <v>1</v>
+      </c>
+      <c r="H308" t="s">
+        <v>4</v>
+      </c>
+      <c r="I308" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="s">
+        <v>0</v>
+      </c>
+      <c r="C309" t="s">
+        <v>1</v>
+      </c>
+      <c r="D309" t="n">
+        <v>308</v>
+      </c>
+      <c r="E309" t="s">
         <v>600</v>
       </c>
-      <c r="G308" t="n">
-        <v>1</v>
-      </c>
-      <c r="H308" t="s">
-        <v>4</v>
-      </c>
-      <c r="I308" t="n">
+      <c r="F309" t="s">
+        <v>601</v>
+      </c>
+      <c r="G309" t="n">
+        <v>6</v>
+      </c>
+      <c r="H309" t="s">
+        <v>4</v>
+      </c>
+      <c r="I309" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="s">
+        <v>0</v>
+      </c>
+      <c r="C310" t="s">
+        <v>1</v>
+      </c>
+      <c r="D310" t="n">
+        <v>309</v>
+      </c>
+      <c r="E310" t="s">
+        <v>600</v>
+      </c>
+      <c r="F310" t="s">
+        <v>602</v>
+      </c>
+      <c r="G310" t="n">
+        <v>1</v>
+      </c>
+      <c r="H310" t="s">
+        <v>4</v>
+      </c>
+      <c r="I310" t="n">
         <v>3</v>
       </c>
     </row>
